--- a/data/NWHEAT_Mehmood_v5.xlsx
+++ b/data/NWHEAT_Mehmood_v5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehmo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies and Work\PhD (Crop Science)\8. Summer 2024\1. Quantitative Crop Physiology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96D64F6-59C4-4F1A-A98E-30C494D5EEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF001838-0541-40D0-9430-B94A9C211790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,7 +261,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
   <si>
     <t>Name of the observed or required variable</t>
   </si>
@@ -449,24 +449,9 @@
     <t>% protein, max n:c ratio of grain growth</t>
   </si>
   <si>
-    <t>BBCH10</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
-    <t>BBCH30</t>
-  </si>
-  <si>
-    <t>BBCH55</t>
-  </si>
-  <si>
-    <t>BBCH90</t>
-  </si>
-  <si>
-    <t>HP%M</t>
-  </si>
-  <si>
     <t>H#AM</t>
   </si>
   <si>
@@ -537,6 +522,27 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Zadok10</t>
+  </si>
+  <si>
+    <t>Zadok30</t>
+  </si>
+  <si>
+    <t>Zadok55</t>
+  </si>
+  <si>
+    <t>Zadok90</t>
+  </si>
+  <si>
+    <t>HP%M1</t>
+  </si>
+  <si>
+    <t>MNNCR</t>
+  </si>
+  <si>
+    <t>% protein, min n:c ratio of grain growth</t>
   </si>
 </sst>
 </file>
@@ -967,7 +973,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1000,10 +1006,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1014,10 +1020,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1028,10 +1034,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1042,10 +1048,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1070,10 +1076,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1098,7 +1104,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>59</v>
@@ -1126,7 +1132,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>55</v>
@@ -1178,7 +1184,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1450,7 +1456,7 @@
   <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1564,7 +1570,26 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.23</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="F7" s="6"/>
       <c r="G7" s="8"/>
@@ -2078,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2086,7 +2111,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2094,7 +2119,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2102,7 +2127,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2110,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2118,7 +2143,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2126,7 +2151,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2134,7 +2159,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2142,7 +2167,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2150,7 +2175,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2158,7 +2183,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2166,7 +2191,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2174,7 +2199,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2182,7 +2207,7 @@
         <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2190,7 +2215,7 @@
         <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2198,7 +2223,7 @@
         <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2206,7 +2231,7 @@
         <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2214,7 +2239,7 @@
         <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2222,7 +2247,7 @@
         <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2230,7 +2255,7 @@
         <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2238,7 +2263,7 @@
         <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2246,7 +2271,7 @@
         <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
